--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H2">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J2">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N2">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P2">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q2">
-        <v>6.7015786260199</v>
+        <v>24.70401042497578</v>
       </c>
       <c r="R2">
-        <v>6.7015786260199</v>
+        <v>222.336093824782</v>
       </c>
       <c r="S2">
-        <v>0.01757897298457019</v>
+        <v>0.04930781406094766</v>
       </c>
       <c r="T2">
-        <v>0.01757897298457019</v>
+        <v>0.04930781406094764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H3">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J3">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N3">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P3">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q3">
-        <v>21.21785897980106</v>
+        <v>52.38630984109756</v>
       </c>
       <c r="R3">
-        <v>21.21785897980106</v>
+        <v>471.4767885698781</v>
       </c>
       <c r="S3">
-        <v>0.05565676247506213</v>
+        <v>0.1045601252812199</v>
       </c>
       <c r="T3">
-        <v>0.05565676247506213</v>
+        <v>0.1045601252812199</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.4771272701056</v>
+        <v>15.79399266666667</v>
       </c>
       <c r="H4">
-        <v>6.4771272701056</v>
+        <v>47.381978</v>
       </c>
       <c r="I4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="J4">
-        <v>0.1499107997975075</v>
+        <v>0.2968109173698557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N4">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P4">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q4">
-        <v>29.23060253670267</v>
+        <v>71.61673837352066</v>
       </c>
       <c r="R4">
-        <v>29.23060253670267</v>
+        <v>644.550645361686</v>
       </c>
       <c r="S4">
-        <v>0.07667506433787519</v>
+        <v>0.1429429780276881</v>
       </c>
       <c r="T4">
-        <v>0.07667506433787519</v>
+        <v>0.1429429780276881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H5">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J5">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N5">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P5">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q5">
-        <v>25.26546804515615</v>
+        <v>38.89944756163044</v>
       </c>
       <c r="R5">
-        <v>25.26546804515615</v>
+        <v>350.095028054674</v>
       </c>
       <c r="S5">
-        <v>0.06627408331581403</v>
+        <v>0.07764110743344368</v>
       </c>
       <c r="T5">
-        <v>0.06627408331581403</v>
+        <v>0.07764110743344368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H6">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J6">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N6">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P6">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q6">
-        <v>79.99296403975391</v>
+        <v>82.48857078488288</v>
       </c>
       <c r="R6">
-        <v>79.99296403975391</v>
+        <v>742.397137063946</v>
       </c>
       <c r="S6">
-        <v>0.2098302851138336</v>
+        <v>0.1646425434755422</v>
       </c>
       <c r="T6">
-        <v>0.2098302851138336</v>
+        <v>0.1646425434755422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.419269130392</v>
+        <v>24.86954866666666</v>
       </c>
       <c r="H7">
-        <v>24.419269130392</v>
+        <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="J7">
-        <v>0.5651752718683212</v>
+        <v>0.4673646309781075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N7">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P7">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q7">
-        <v>110.20162495211</v>
+        <v>112.7692026910446</v>
       </c>
       <c r="R7">
-        <v>110.20162495211</v>
+        <v>1014.922824219402</v>
       </c>
       <c r="S7">
-        <v>0.2890709034386736</v>
+        <v>0.2250809800691216</v>
       </c>
       <c r="T7">
-        <v>0.2890709034386736</v>
+        <v>0.2250809800691216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H8">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J8">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.0346529173435</v>
+        <v>1.564139666666667</v>
       </c>
       <c r="N8">
-        <v>1.0346529173435</v>
+        <v>4.692419</v>
       </c>
       <c r="O8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="P8">
-        <v>0.1172628857181407</v>
+        <v>0.166125338305886</v>
       </c>
       <c r="Q8">
-        <v>12.73672807401961</v>
+        <v>19.62801693313923</v>
       </c>
       <c r="R8">
-        <v>12.73672807401961</v>
+        <v>176.652152398253</v>
       </c>
       <c r="S8">
-        <v>0.03340982941775645</v>
+        <v>0.03917641681149468</v>
       </c>
       <c r="T8">
-        <v>0.03340982941775645</v>
+        <v>0.03917641681149467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H9">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J9">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.27581319541605</v>
+        <v>3.316850333333333</v>
       </c>
       <c r="N9">
-        <v>3.27581319541605</v>
+        <v>9.950551000000001</v>
       </c>
       <c r="O9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="P9">
-        <v>0.371265863101529</v>
+        <v>0.3522785691569683</v>
       </c>
       <c r="Q9">
-        <v>40.32573744480886</v>
+        <v>41.62236652823745</v>
       </c>
       <c r="R9">
-        <v>40.32573744480886</v>
+        <v>374.601298754137</v>
       </c>
       <c r="S9">
-        <v>0.1057788155126333</v>
+        <v>0.08307590040020618</v>
       </c>
       <c r="T9">
-        <v>0.1057788155126333</v>
+        <v>0.08307590040020618</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.3101456155186</v>
+        <v>12.54876233333333</v>
       </c>
       <c r="H10">
-        <v>12.3101456155186</v>
+        <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="J10">
-        <v>0.2849139283341713</v>
+        <v>0.2358244516520368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.51289612165149</v>
+        <v>4.534428999999999</v>
       </c>
       <c r="N10">
-        <v>4.51289612165149</v>
+        <v>13.603287</v>
       </c>
       <c r="O10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="P10">
-        <v>0.5114712511803304</v>
+        <v>0.4815960925371456</v>
       </c>
       <c r="Q10">
-        <v>55.55440840523899</v>
+        <v>56.90147183837433</v>
       </c>
       <c r="R10">
-        <v>55.55440840523899</v>
+        <v>512.113246545369</v>
       </c>
       <c r="S10">
-        <v>0.1457252834037816</v>
+        <v>0.113572134440336</v>
       </c>
       <c r="T10">
-        <v>0.1457252834037816</v>
+        <v>0.1135721344403359</v>
       </c>
     </row>
   </sheetData>
